--- a/njs199.xlsx
+++ b/njs199.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sasha/Documents/Classes/EECS 348/Assignment3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Problem</t>
   </si>
@@ -47,6 +57,12 @@
   </si>
   <si>
     <t>number of consistency checks, i.e. variable assignments</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Run on the easy board, average of ten trials</t>
   </si>
 </sst>
 </file>
@@ -147,9 +163,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -182,9 +198,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -391,21 +407,22 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56" customWidth="1"/>
     <col min="8" max="8" width="44.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,26 +441,47 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
       <c r="H1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>

--- a/njs199.xlsx
+++ b/njs199.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sasha/Documents/Classes/EECS 348/Assignment3/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="14400" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,15 +30,6 @@
     <t>Forward Checking</t>
   </si>
   <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>MRV</t>
-  </si>
-  <si>
-    <t>LCV</t>
-  </si>
-  <si>
     <t>4x4</t>
   </si>
   <si>
@@ -56,19 +42,28 @@
     <t>25x25</t>
   </si>
   <si>
-    <t>number of consistency checks, i.e. variable assignments</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>Run on the easy board, average of ten trials</t>
+    <t>Run on the easy board, average of 100 trials</t>
+  </si>
+  <si>
+    <t>MRV (+FC)</t>
+  </si>
+  <si>
+    <t>Degree (+FC)</t>
+  </si>
+  <si>
+    <t>LCV (+FC)</t>
+  </si>
+  <si>
+    <t>Run on all 20 more boards, average of those trials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,89 +400,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" s="1">
+        <v>26.08</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13.07</v>
+      </c>
+      <c r="D2" s="1">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11.03</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>26</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>